--- a/isitword test/word/en_wordlist.xlsx
+++ b/isitword test/word/en_wordlist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PH\Documents\GitHub\Dyslexia\isitword test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PH\Documents\GitHub\Dyslexia\isitword test\word\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2CC5B5-075D-4A72-92B5-DE53BEB22AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A201C6FB-971C-4B19-9058-C07E8BE6552D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="16104" windowHeight="10632" xr2:uid="{EDFBF649-D5F8-4589-81E2-4779C7BE7634}"/>
+    <workbookView xWindow="10044" yWindow="24" windowWidth="16104" windowHeight="10632" xr2:uid="{EDFBF649-D5F8-4589-81E2-4779C7BE7634}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
   <si>
     <t>Scramble</t>
   </si>
@@ -397,6 +397,15 @@
   </si>
   <si>
     <t>Correct</t>
+  </si>
+  <si>
+    <t>swa</t>
+  </si>
+  <si>
+    <t>tba</t>
+  </si>
+  <si>
+    <t>boik</t>
   </si>
 </sst>
 </file>
@@ -767,7 +776,7 @@
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -790,13 +799,13 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -804,13 +813,13 @@
       <c r="A3" s="2">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s">
         <v>117</v>
       </c>
     </row>
@@ -818,13 +827,13 @@
       <c r="A4" s="2">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -832,13 +841,13 @@
       <c r="A5" s="2">
         <v>7</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -846,13 +855,13 @@
       <c r="A6" s="2">
         <v>8</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="C6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -860,13 +869,13 @@
       <c r="A7" s="2">
         <v>9</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" t="s">
         <v>17</v>
       </c>
     </row>
@@ -874,13 +883,13 @@
       <c r="A8" s="2">
         <v>10</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="C8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" t="s">
         <v>19</v>
       </c>
     </row>
@@ -888,13 +897,13 @@
       <c r="A9" s="2">
         <v>11</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" t="s">
         <v>22</v>
       </c>
     </row>
@@ -902,13 +911,13 @@
       <c r="A10" s="2">
         <v>22</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" t="s">
         <v>25</v>
       </c>
     </row>
@@ -916,13 +925,13 @@
       <c r="A11" s="2">
         <v>23</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" t="s">
         <v>28</v>
       </c>
     </row>
@@ -930,13 +939,13 @@
       <c r="A12" s="2">
         <v>24</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" t="s">
         <v>31</v>
       </c>
     </row>
@@ -944,13 +953,13 @@
       <c r="A13" s="2">
         <v>26</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" t="s">
         <v>34</v>
       </c>
     </row>
@@ -958,13 +967,13 @@
       <c r="A14" s="2">
         <v>27</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" t="s">
         <v>37</v>
       </c>
     </row>
@@ -972,13 +981,13 @@
       <c r="A15" s="2">
         <v>28</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" t="s">
         <v>40</v>
       </c>
     </row>
@@ -986,13 +995,13 @@
       <c r="A16" s="2">
         <v>30</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1000,27 +1009,27 @@
       <c r="A17" s="2">
         <v>31</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>25</v>
+      <c r="D17" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
         <v>41</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1028,13 +1037,13 @@
       <c r="A19" s="2">
         <v>42</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1042,13 +1051,13 @@
       <c r="A20" s="2">
         <v>44</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1056,13 +1065,13 @@
       <c r="A21" s="2">
         <v>46</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" t="s">
         <v>56</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1070,13 +1079,13 @@
       <c r="A22" s="2">
         <v>48</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1084,13 +1093,13 @@
       <c r="A23" s="2">
         <v>50</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1098,13 +1107,13 @@
       <c r="A24" s="2">
         <v>51</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1112,13 +1121,13 @@
       <c r="A25" s="2">
         <v>52</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" t="s">
         <v>68</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1126,13 +1135,13 @@
       <c r="A26" s="2">
         <v>61</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" t="s">
         <v>71</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1140,13 +1149,13 @@
       <c r="A27" s="2">
         <v>63</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" t="s">
         <v>73</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" t="s">
         <v>74</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1154,13 +1163,13 @@
       <c r="A28" s="2">
         <v>64</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" t="s">
         <v>76</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" t="s">
         <v>77</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1168,13 +1177,13 @@
       <c r="A29" s="2">
         <v>66</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" t="s">
         <v>79</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" t="s">
         <v>80</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1182,13 +1191,13 @@
       <c r="A30" s="2">
         <v>68</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" t="s">
         <v>82</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" t="s">
         <v>83</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1196,13 +1205,13 @@
       <c r="A31" s="2">
         <v>70</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" t="s">
         <v>85</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" t="s">
         <v>86</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1210,13 +1219,13 @@
       <c r="A32" s="2">
         <v>71</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" t="s">
         <v>88</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" t="s">
         <v>89</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1224,13 +1233,13 @@
       <c r="A33" s="2">
         <v>75</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" t="s">
         <v>91</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" t="s">
         <v>92</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1238,13 +1247,13 @@
       <c r="A34" s="2">
         <v>82</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" t="s">
         <v>94</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" t="s">
         <v>95</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1252,13 +1261,13 @@
       <c r="A35" s="2">
         <v>87</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" t="s">
         <v>97</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" t="s">
         <v>98</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1266,13 +1275,13 @@
       <c r="A36" s="2">
         <v>88</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" t="s">
         <v>100</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" t="s">
         <v>101</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1280,13 +1289,13 @@
       <c r="A37" s="2">
         <v>89</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" t="s">
         <v>103</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" t="s">
         <v>104</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1294,13 +1303,13 @@
       <c r="A38" s="2">
         <v>93</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" t="s">
         <v>106</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" t="s">
         <v>107</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1308,13 +1317,13 @@
       <c r="A39" s="2">
         <v>94</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" t="s">
         <v>109</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" t="s">
         <v>110</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1322,13 +1331,13 @@
       <c r="A40" s="2">
         <v>95</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" t="s">
         <v>112</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" t="s">
         <v>113</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" t="s">
         <v>114</v>
       </c>
     </row>
@@ -1336,13 +1345,13 @@
       <c r="A41" s="2">
         <v>96</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" t="s">
         <v>115</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" t="s">
         <v>116</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" t="s">
         <v>119</v>
       </c>
     </row>

--- a/isitword test/word/en_wordlist.xlsx
+++ b/isitword test/word/en_wordlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PH\Documents\GitHub\Dyslexia\isitword test\word\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A201C6FB-971C-4B19-9058-C07E8BE6552D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81BB316-2C51-4B1D-9601-4FC495F41343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10044" yWindow="24" windowWidth="16104" windowHeight="10632" xr2:uid="{EDFBF649-D5F8-4589-81E2-4779C7BE7634}"/>
+    <workbookView xWindow="11364" yWindow="1608" windowWidth="7056" windowHeight="10632" xr2:uid="{EDFBF649-D5F8-4589-81E2-4779C7BE7634}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -141,15 +141,6 @@
     <t>vore</t>
   </si>
   <si>
-    <t>soil</t>
-  </si>
-  <si>
-    <t>sloi</t>
-  </si>
-  <si>
-    <t>scyl</t>
-  </si>
-  <si>
     <t>gift</t>
   </si>
   <si>
@@ -159,15 +150,6 @@
     <t>golk</t>
   </si>
   <si>
-    <t>kiwi</t>
-  </si>
-  <si>
-    <t>ikiw</t>
-  </si>
-  <si>
-    <t>knan</t>
-  </si>
-  <si>
     <t>belt</t>
   </si>
   <si>
@@ -192,15 +174,6 @@
     <t>biwol</t>
   </si>
   <si>
-    <t>amber</t>
-  </si>
-  <si>
-    <t>amrbe</t>
-  </si>
-  <si>
-    <t>awlas</t>
-  </si>
-  <si>
     <t>donut</t>
   </si>
   <si>
@@ -237,15 +210,6 @@
     <t>cowok</t>
   </si>
   <si>
-    <t>arrow</t>
-  </si>
-  <si>
-    <t>roraw</t>
-  </si>
-  <si>
-    <t>aronu</t>
-  </si>
-  <si>
     <t>statue</t>
   </si>
   <si>
@@ -345,33 +309,6 @@
     <t>podlana</t>
   </si>
   <si>
-    <t>sprouts</t>
-  </si>
-  <si>
-    <t>utosspr</t>
-  </si>
-  <si>
-    <t>squratz</t>
-  </si>
-  <si>
-    <t>vulture</t>
-  </si>
-  <si>
-    <t>teurlvu</t>
-  </si>
-  <si>
-    <t>vandere</t>
-  </si>
-  <si>
-    <t>speaker</t>
-  </si>
-  <si>
-    <t>reapkes</t>
-  </si>
-  <si>
-    <t>sqeolae</t>
-  </si>
-  <si>
     <t>raccoon</t>
   </si>
   <si>
@@ -396,23 +333,86 @@
     <t>genitke</t>
   </si>
   <si>
+    <t>boat</t>
+  </si>
+  <si>
+    <t>otab</t>
+  </si>
+  <si>
+    <t>baul</t>
+  </si>
+  <si>
+    <t>comb</t>
+  </si>
+  <si>
+    <t>cbmo</t>
+  </si>
+  <si>
+    <t>coot</t>
+  </si>
+  <si>
+    <t>bicycle</t>
+  </si>
+  <si>
+    <t>celiycb</t>
+  </si>
+  <si>
+    <t>biageka</t>
+  </si>
+  <si>
+    <t>dolphin</t>
+  </si>
+  <si>
+    <t>pihdnlo</t>
+  </si>
+  <si>
+    <t>dulqine</t>
+  </si>
+  <si>
+    <t>giraffe</t>
+  </si>
+  <si>
+    <t>frefaig</t>
+  </si>
+  <si>
+    <t>giandto</t>
+  </si>
+  <si>
+    <t>candy</t>
+  </si>
+  <si>
+    <t>ncyad</t>
+  </si>
+  <si>
+    <t>cowky</t>
+  </si>
+  <si>
+    <t>grape</t>
+  </si>
+  <si>
+    <t>gnyms</t>
+  </si>
+  <si>
+    <t>gerep</t>
+  </si>
+  <si>
+    <t>swa</t>
+  </si>
+  <si>
+    <t>tba</t>
+  </si>
+  <si>
+    <t>boik</t>
+  </si>
+  <si>
     <t>Correct</t>
-  </si>
-  <si>
-    <t>swa</t>
-  </si>
-  <si>
-    <t>tba</t>
-  </si>
-  <si>
-    <t>boik</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -429,6 +429,12 @@
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -451,7 +457,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -459,6 +465,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -776,17 +783,17 @@
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -799,13 +806,13 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -813,27 +820,27 @@
       <c r="A3" s="2">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
-        <v>117</v>
+      <c r="D3" s="2" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -841,13 +848,13 @@
       <c r="A5" s="2">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -855,13 +862,13 @@
       <c r="A6" s="2">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -869,13 +876,13 @@
       <c r="A7" s="2">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -883,13 +890,13 @@
       <c r="A8" s="2">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>122</v>
-      </c>
-      <c r="D8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -897,13 +904,13 @@
       <c r="A9" s="2">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -911,13 +918,13 @@
       <c r="A10" s="2">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -925,13 +932,13 @@
       <c r="A11" s="2">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="2" t="s">
         <v>28</v>
       </c>
     </row>
@@ -939,13 +946,13 @@
       <c r="A12" s="2">
         <v>24</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="2" t="s">
         <v>31</v>
       </c>
     </row>
@@ -953,13 +960,13 @@
       <c r="A13" s="2">
         <v>26</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="2" t="s">
         <v>34</v>
       </c>
     </row>
@@ -967,392 +974,392 @@
       <c r="A14" s="2">
         <v>27</v>
       </c>
-      <c r="B14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" t="s">
-        <v>37</v>
+      <c r="B14" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
         <v>28</v>
       </c>
-      <c r="B15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" t="s">
-        <v>40</v>
+      <c r="B15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
         <v>30</v>
       </c>
-      <c r="B16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" t="s">
-        <v>43</v>
+      <c r="B16" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
         <v>31</v>
       </c>
-      <c r="B17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" t="s">
-        <v>45</v>
+      <c r="B17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="D17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
         <v>41</v>
       </c>
-      <c r="B18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" t="s">
-        <v>48</v>
+      <c r="B18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
         <v>42</v>
       </c>
-      <c r="B19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" t="s">
-        <v>51</v>
+      <c r="B19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">
         <v>44</v>
       </c>
-      <c r="B20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" t="s">
-        <v>54</v>
+      <c r="B20" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
         <v>46</v>
       </c>
-      <c r="B21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" t="s">
-        <v>57</v>
+      <c r="B21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2">
         <v>48</v>
       </c>
-      <c r="B22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" t="s">
-        <v>60</v>
+      <c r="B22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2">
         <v>50</v>
       </c>
-      <c r="B23" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" t="s">
-        <v>63</v>
+      <c r="B23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2">
         <v>51</v>
       </c>
-      <c r="B24" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" t="s">
-        <v>66</v>
+      <c r="B24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2">
         <v>52</v>
       </c>
-      <c r="B25" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" t="s">
-        <v>69</v>
+      <c r="B25" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2">
         <v>61</v>
       </c>
-      <c r="B26" t="s">
-        <v>70</v>
-      </c>
-      <c r="C26" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26" t="s">
-        <v>72</v>
+      <c r="B26" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2">
         <v>63</v>
       </c>
-      <c r="B27" t="s">
-        <v>73</v>
-      </c>
-      <c r="C27" t="s">
-        <v>74</v>
-      </c>
-      <c r="D27" t="s">
-        <v>75</v>
+      <c r="B27" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2">
         <v>64</v>
       </c>
-      <c r="B28" t="s">
-        <v>76</v>
-      </c>
-      <c r="C28" t="s">
-        <v>77</v>
-      </c>
-      <c r="D28" t="s">
-        <v>78</v>
+      <c r="B28" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2">
         <v>66</v>
       </c>
-      <c r="B29" t="s">
-        <v>79</v>
-      </c>
-      <c r="C29" t="s">
-        <v>80</v>
-      </c>
-      <c r="D29" t="s">
-        <v>81</v>
+      <c r="B29" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2">
         <v>68</v>
       </c>
-      <c r="B30" t="s">
-        <v>82</v>
-      </c>
-      <c r="C30" t="s">
-        <v>83</v>
-      </c>
-      <c r="D30" t="s">
-        <v>84</v>
+      <c r="B30" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2">
         <v>70</v>
       </c>
-      <c r="B31" t="s">
-        <v>85</v>
-      </c>
-      <c r="C31" t="s">
-        <v>86</v>
-      </c>
-      <c r="D31" t="s">
-        <v>87</v>
+      <c r="B31" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2">
         <v>71</v>
       </c>
-      <c r="B32" t="s">
-        <v>88</v>
-      </c>
-      <c r="C32" t="s">
-        <v>89</v>
-      </c>
-      <c r="D32" t="s">
-        <v>90</v>
+      <c r="B32" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2">
         <v>75</v>
       </c>
-      <c r="B33" t="s">
-        <v>91</v>
-      </c>
-      <c r="C33" t="s">
-        <v>92</v>
-      </c>
-      <c r="D33" t="s">
-        <v>93</v>
+      <c r="B33" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2">
         <v>82</v>
       </c>
-      <c r="B34" t="s">
-        <v>94</v>
-      </c>
-      <c r="C34" t="s">
-        <v>95</v>
-      </c>
-      <c r="D34" t="s">
-        <v>96</v>
+      <c r="B34" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2">
         <v>87</v>
       </c>
-      <c r="B35" t="s">
-        <v>97</v>
-      </c>
-      <c r="C35" t="s">
-        <v>98</v>
-      </c>
-      <c r="D35" t="s">
-        <v>99</v>
+      <c r="B35" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2">
         <v>88</v>
       </c>
-      <c r="B36" t="s">
-        <v>100</v>
-      </c>
-      <c r="C36" t="s">
-        <v>101</v>
-      </c>
-      <c r="D36" t="s">
-        <v>102</v>
+      <c r="B36" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2">
         <v>89</v>
       </c>
-      <c r="B37" t="s">
-        <v>103</v>
-      </c>
-      <c r="C37" t="s">
-        <v>104</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="B37" s="2" t="s">
         <v>105</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2">
         <v>93</v>
       </c>
-      <c r="B38" t="s">
-        <v>106</v>
-      </c>
-      <c r="C38" t="s">
-        <v>107</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="B38" s="2" t="s">
         <v>108</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2">
         <v>94</v>
       </c>
-      <c r="B39" t="s">
-        <v>109</v>
-      </c>
-      <c r="C39" t="s">
-        <v>110</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="B39" s="2" t="s">
         <v>111</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2">
         <v>95</v>
       </c>
-      <c r="B40" t="s">
-        <v>112</v>
-      </c>
-      <c r="C40" t="s">
-        <v>113</v>
-      </c>
-      <c r="D40" t="s">
-        <v>114</v>
+      <c r="B40" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2">
         <v>96</v>
       </c>
-      <c r="B41" t="s">
-        <v>115</v>
-      </c>
-      <c r="C41" t="s">
-        <v>116</v>
-      </c>
-      <c r="D41" t="s">
-        <v>119</v>
+      <c r="B41" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/isitword test/word/en_wordlist.xlsx
+++ b/isitword test/word/en_wordlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PH\Documents\GitHub\Dyslexia\isitword test\word\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81BB316-2C51-4B1D-9601-4FC495F41343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A1C949A-3CA8-41D7-8800-BF285556F5AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11364" yWindow="1608" windowWidth="7056" windowHeight="10632" xr2:uid="{EDFBF649-D5F8-4589-81E2-4779C7BE7634}"/>
+    <workbookView xWindow="3816" yWindow="1212" windowWidth="13308" windowHeight="10632" xr2:uid="{EDFBF649-D5F8-4589-81E2-4779C7BE7634}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,9 +45,6 @@
     <t>bus</t>
   </si>
   <si>
-    <t>sub</t>
-  </si>
-  <si>
     <t>bua</t>
   </si>
   <si>
@@ -78,9 +75,6 @@
     <t>saw</t>
   </si>
   <si>
-    <t>sus</t>
-  </si>
-  <si>
     <t>bow</t>
   </si>
   <si>
@@ -138,9 +132,6 @@
     <t>asve</t>
   </si>
   <si>
-    <t>vore</t>
-  </si>
-  <si>
     <t>gift</t>
   </si>
   <si>
@@ -348,9 +339,6 @@
     <t>cbmo</t>
   </si>
   <si>
-    <t>coot</t>
-  </si>
-  <si>
     <t>bicycle</t>
   </si>
   <si>
@@ -406,6 +394,18 @@
   </si>
   <si>
     <t>Correct</t>
+  </si>
+  <si>
+    <t>comd</t>
+  </si>
+  <si>
+    <t>vrue</t>
+  </si>
+  <si>
+    <t>suw</t>
+  </si>
+  <si>
+    <t>sbu</t>
   </si>
 </sst>
 </file>
@@ -782,18 +782,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22C9E852-D4D9-4E8E-84A4-5801E2072E8E}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -810,10 +810,10 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -821,13 +821,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -835,13 +835,13 @@
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -849,13 +849,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -863,13 +863,13 @@
         <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -877,13 +877,13 @@
         <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -891,13 +891,13 @@
         <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -905,13 +905,13 @@
         <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -919,13 +919,13 @@
         <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -933,13 +933,13 @@
         <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -947,13 +947,13 @@
         <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -961,13 +961,13 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>34</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -975,13 +975,13 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -989,13 +989,13 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1003,13 +1003,13 @@
         <v>30</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1017,13 +1017,13 @@
         <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D17" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1031,13 +1031,13 @@
         <v>41</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1045,13 +1045,13 @@
         <v>42</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1059,13 +1059,13 @@
         <v>44</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1073,13 +1073,13 @@
         <v>46</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1087,13 +1087,13 @@
         <v>48</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1101,13 +1101,13 @@
         <v>50</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1115,13 +1115,13 @@
         <v>51</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1129,13 +1129,13 @@
         <v>52</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1143,13 +1143,13 @@
         <v>61</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1157,13 +1157,13 @@
         <v>63</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1171,13 +1171,13 @@
         <v>64</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1185,13 +1185,13 @@
         <v>66</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1199,13 +1199,13 @@
         <v>68</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1213,13 +1213,13 @@
         <v>70</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1227,13 +1227,13 @@
         <v>71</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1241,13 +1241,13 @@
         <v>75</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1255,13 +1255,13 @@
         <v>82</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1269,13 +1269,13 @@
         <v>87</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1283,13 +1283,13 @@
         <v>88</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1297,13 +1297,13 @@
         <v>89</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1311,13 +1311,13 @@
         <v>93</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1325,13 +1325,13 @@
         <v>94</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1339,13 +1339,13 @@
         <v>95</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1353,13 +1353,13 @@
         <v>96</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C41" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/isitword test/word/en_wordlist.xlsx
+++ b/isitword test/word/en_wordlist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PH\Documents\GitHub\Dyslexia\isitword test\word\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A1C949A-3CA8-41D7-8800-BF285556F5AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB421A16-0A16-49E2-8092-9AE0FD1F709F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3816" yWindow="1212" windowWidth="13308" windowHeight="10632" xr2:uid="{EDFBF649-D5F8-4589-81E2-4779C7BE7634}"/>
+    <workbookView xWindow="408" yWindow="1884" windowWidth="17280" windowHeight="8880" xr2:uid="{EDFBF649-D5F8-4589-81E2-4779C7BE7634}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
   <si>
     <t>Scramble</t>
   </si>
@@ -406,6 +406,9 @@
   </si>
   <si>
     <t>sbu</t>
+  </si>
+  <si>
+    <t>len</t>
   </si>
 </sst>
 </file>
@@ -780,15 +783,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22C9E852-D4D9-4E8E-84A4-5801E2072E8E}">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>94</v>
       </c>
@@ -801,8 +804,11 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -815,8 +821,12 @@
       <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2">
+        <f>LEN(B2)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="2">
         <v>3</v>
       </c>
@@ -829,8 +839,12 @@
       <c r="D3" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <f t="shared" ref="E3:E41" si="0">LEN(B3)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="2">
         <v>6</v>
       </c>
@@ -843,8 +857,12 @@
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <v>7</v>
       </c>
@@ -857,8 +875,12 @@
       <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
         <v>8</v>
       </c>
@@ -871,8 +893,12 @@
       <c r="D6" s="2" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
         <v>9</v>
       </c>
@@ -885,8 +911,12 @@
       <c r="D7" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="2">
         <v>10</v>
       </c>
@@ -899,8 +929,12 @@
       <c r="D8" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="2">
         <v>11</v>
       </c>
@@ -913,8 +947,12 @@
       <c r="D9" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="2">
         <v>22</v>
       </c>
@@ -927,8 +965,12 @@
       <c r="D10" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="2">
         <v>23</v>
       </c>
@@ -941,8 +983,12 @@
       <c r="D11" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="2">
         <v>24</v>
       </c>
@@ -955,8 +1001,12 @@
       <c r="D12" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="2">
         <v>26</v>
       </c>
@@ -969,8 +1019,12 @@
       <c r="D13" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="2">
         <v>27</v>
       </c>
@@ -983,8 +1037,12 @@
       <c r="D14" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="2">
         <v>28</v>
       </c>
@@ -997,8 +1055,12 @@
       <c r="D15" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="2">
         <v>30</v>
       </c>
@@ -1011,8 +1073,12 @@
       <c r="D16" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="2">
         <v>31</v>
       </c>
@@ -1025,8 +1091,12 @@
       <c r="D17" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="2">
         <v>41</v>
       </c>
@@ -1039,8 +1109,12 @@
       <c r="D18" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="2">
         <v>42</v>
       </c>
@@ -1053,8 +1127,12 @@
       <c r="D19" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="2">
         <v>44</v>
       </c>
@@ -1067,8 +1145,12 @@
       <c r="D20" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="2">
         <v>46</v>
       </c>
@@ -1081,8 +1163,12 @@
       <c r="D21" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="2">
         <v>48</v>
       </c>
@@ -1095,8 +1181,12 @@
       <c r="D22" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="2">
         <v>50</v>
       </c>
@@ -1109,8 +1199,12 @@
       <c r="D23" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="2">
         <v>51</v>
       </c>
@@ -1123,8 +1217,12 @@
       <c r="D24" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="2">
         <v>52</v>
       </c>
@@ -1137,8 +1235,12 @@
       <c r="D25" s="3" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="2">
         <v>61</v>
       </c>
@@ -1151,8 +1253,12 @@
       <c r="D26" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="2">
         <v>63</v>
       </c>
@@ -1165,8 +1271,12 @@
       <c r="D27" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="2">
         <v>64</v>
       </c>
@@ -1179,8 +1289,12 @@
       <c r="D28" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="2">
         <v>66</v>
       </c>
@@ -1193,8 +1307,12 @@
       <c r="D29" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="2">
         <v>68</v>
       </c>
@@ -1207,8 +1325,12 @@
       <c r="D30" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="2">
         <v>70</v>
       </c>
@@ -1221,8 +1343,12 @@
       <c r="D31" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="2">
         <v>71</v>
       </c>
@@ -1235,8 +1361,12 @@
       <c r="D32" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="2">
         <v>75</v>
       </c>
@@ -1249,8 +1379,12 @@
       <c r="D33" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="2">
         <v>82</v>
       </c>
@@ -1263,8 +1397,12 @@
       <c r="D34" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="2">
         <v>87</v>
       </c>
@@ -1277,8 +1415,12 @@
       <c r="D35" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="2">
         <v>88</v>
       </c>
@@ -1291,8 +1433,12 @@
       <c r="D36" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="2">
         <v>89</v>
       </c>
@@ -1305,8 +1451,12 @@
       <c r="D37" s="2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="2">
         <v>93</v>
       </c>
@@ -1319,8 +1469,12 @@
       <c r="D38" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="2">
         <v>94</v>
       </c>
@@ -1333,8 +1487,12 @@
       <c r="D39" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="2">
         <v>95</v>
       </c>
@@ -1347,8 +1505,12 @@
       <c r="D40" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="2">
         <v>96</v>
       </c>
@@ -1360,6 +1522,10 @@
       </c>
       <c r="D41" s="2" t="s">
         <v>95</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
